--- a/docs/StructureDefinition-onc-waterlow-score.xlsx
+++ b/docs/StructureDefinition-onc-waterlow-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T14:13:58+00:00</t>
+    <t>2025-12-26T15:22:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-onc-waterlow-score.xlsx
+++ b/docs/StructureDefinition-onc-waterlow-score.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$60</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2300" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2338" uniqueCount="503">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T15:22:58+00:00</t>
+    <t>2026-01-01T13:37:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -270,7 +270,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}onc-equity-skin-tone-required:Wound assessments MUST have an associated skin tone observation to ensure equitable care (AI Safety Gate). {hasMember.resolve().code.coding.where(code = '66555-4' or code = 'mst-score').exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1475,10 +1475,27 @@
     <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R4/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
+    <t xml:space="preserve">pattern:resolve().code}
+</t>
+  </si>
+  <si>
     <t>Relationships established by OBX-4 usage</t>
   </si>
   <si>
     <t>outBoundRelationship</t>
+  </si>
+  <si>
+    <t>Observation.hasMember:skinTone</t>
+  </si>
+  <si>
+    <t>skinTone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://clinyqai.github.io/open-nursing-core-ig/StructureDefinition/onc-skintone-observation|https://clinyqai.github.io/open-nursing-core-ig/StructureDefinition/onc-monk-skintone-observation)
+</t>
+  </si>
+  <si>
+    <t>Mandatory Skin Tone Context (Equity Gate)</t>
   </si>
   <si>
     <t>Observation.derivedFrom</t>
@@ -1894,7 +1911,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP59"/>
+  <dimension ref="A1:AP60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1913,7 +1930,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="129.546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="166.3515625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1930,7 +1947,7 @@
     <col min="25" max="25" width="54.2734375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="50.55078125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.484375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
@@ -7755,13 +7772,13 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>17</v>
@@ -7817,16 +7834,14 @@
         <v>17</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>17</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="AC49" s="2"/>
       <c r="AD49" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>17</v>
+        <v>195</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>457</v>
@@ -7850,10 +7865,10 @@
         <v>17</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>17</v>
@@ -7862,26 +7877,28 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="C50" s="2"/>
+        <v>457</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>466</v>
+      </c>
       <c r="D50" t="s" s="2">
         <v>17</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>17</v>
@@ -7890,16 +7907,16 @@
         <v>90</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7949,7 +7966,7 @@
         <v>17</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7970,24 +7987,24 @@
         <v>17</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AN50" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AO50" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AP50" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="AO50" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AP50" t="s" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="2">
-        <v>470</v>
-      </c>
       <c r="B51" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8001,7 +8018,7 @@
         <v>78</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>17</v>
@@ -8010,7 +8027,7 @@
         <v>90</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>405</v>
+        <v>470</v>
       </c>
       <c r="L51" t="s" s="2">
         <v>471</v>
@@ -8021,9 +8038,7 @@
       <c r="N51" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="O51" t="s" s="2">
-        <v>474</v>
-      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>17</v>
       </c>
@@ -8071,7 +8086,7 @@
         <v>17</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -8092,24 +8107,24 @@
         <v>17</v>
       </c>
       <c r="AM51" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AO51" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AP51" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="AN51" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AP51" t="s" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="52" hidden="true">
-      <c r="A52" t="s" s="2">
-        <v>477</v>
-      </c>
       <c r="B52" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8120,28 +8135,32 @@
         <v>77</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>17</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>284</v>
+        <v>405</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>285</v>
+        <v>476</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+        <v>477</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>479</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>17</v>
       </c>
@@ -8189,19 +8208,19 @@
         <v>17</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>287</v>
+        <v>475</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>17</v>
@@ -8210,10 +8229,10 @@
         <v>17</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>17</v>
+        <v>480</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>288</v>
+        <v>481</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>17</v>
@@ -8224,21 +8243,21 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>17</v>
@@ -8250,17 +8269,15 @@
         <v>17</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>135</v>
+        <v>284</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>136</v>
+        <v>285</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>17</v>
@@ -8309,19 +8326,19 @@
         <v>17</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>140</v>
+        <v>17</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>17</v>
@@ -8344,14 +8361,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>416</v>
+        <v>134</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8364,26 +8381,24 @@
         <v>17</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="K54" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>417</v>
+        <v>136</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>418</v>
+        <v>290</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="O54" t="s" s="2">
-        <v>144</v>
-      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>17</v>
       </c>
@@ -8431,7 +8446,7 @@
         <v>17</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>419</v>
+        <v>293</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -8455,7 +8470,7 @@
         <v>17</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>132</v>
+        <v>288</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>17</v>
@@ -8466,45 +8481,45 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>17</v>
+        <v>416</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>187</v>
+        <v>135</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>481</v>
+        <v>417</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>482</v>
+        <v>418</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>483</v>
+        <v>138</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>206</v>
+        <v>144</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>17</v>
@@ -8529,13 +8544,13 @@
         <v>17</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>209</v>
+        <v>17</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>210</v>
+        <v>17</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>17</v>
@@ -8553,34 +8568,34 @@
         <v>17</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>480</v>
+        <v>419</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>484</v>
+        <v>17</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>213</v>
+        <v>17</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>214</v>
+        <v>132</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>215</v>
+        <v>17</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>17</v>
@@ -8599,7 +8614,7 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>89</v>
@@ -8614,19 +8629,19 @@
         <v>90</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>488</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>277</v>
+        <v>206</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>17</v>
@@ -8651,13 +8666,13 @@
         <v>17</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>17</v>
+        <v>208</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>17</v>
+        <v>209</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>17</v>
+        <v>210</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>17</v>
@@ -8678,7 +8693,7 @@
         <v>485</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>89</v>
@@ -8696,16 +8711,16 @@
         <v>489</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>280</v>
+        <v>213</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>281</v>
+        <v>214</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>17</v>
+        <v>215</v>
       </c>
       <c r="AP56" t="s" s="2">
-        <v>282</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" hidden="true">
@@ -8733,22 +8748,22 @@
         <v>17</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>187</v>
+        <v>491</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>492</v>
+        <v>275</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>493</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>341</v>
+        <v>277</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>17</v>
@@ -8773,13 +8788,13 @@
         <v>17</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>342</v>
+        <v>17</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>343</v>
+        <v>17</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>344</v>
+        <v>17</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>17</v>
@@ -8806,7 +8821,7 @@
         <v>89</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>345</v>
+        <v>17</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>101</v>
@@ -8815,38 +8830,38 @@
         <v>17</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>17</v>
+        <v>494</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>132</v>
+        <v>280</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>346</v>
+        <v>281</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>17</v>
+        <v>282</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>348</v>
+        <v>17</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>17</v>
@@ -8861,16 +8876,16 @@
         <v>187</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>349</v>
+        <v>496</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>350</v>
+        <v>497</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>351</v>
+        <v>498</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>17</v>
@@ -8898,10 +8913,10 @@
         <v>342</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>17</v>
@@ -8919,16 +8934,16 @@
         <v>17</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>17</v>
+        <v>345</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>101</v>
@@ -8937,31 +8952,31 @@
         <v>17</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>355</v>
+        <v>17</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>356</v>
+        <v>132</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>17</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>358</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>17</v>
+        <v>348</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8980,19 +8995,19 @@
         <v>17</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>496</v>
+        <v>349</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>497</v>
+        <v>350</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>408</v>
+        <v>351</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>409</v>
+        <v>352</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>17</v>
@@ -9017,13 +9032,13 @@
         <v>17</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>17</v>
+        <v>342</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>17</v>
+        <v>353</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>17</v>
+        <v>354</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>17</v>
@@ -9041,7 +9056,7 @@
         <v>17</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -9059,23 +9074,145 @@
         <v>17</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>17</v>
+        <v>355</v>
       </c>
       <c r="AM59" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AO59" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AP59" t="s" s="2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="P60" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="AN59" t="s" s="2">
+      <c r="AN60" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="AO59" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="AP59" t="s" s="2">
+      <c r="AO60" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AP60" t="s" s="2">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP59">
+  <autoFilter ref="A1:AP60">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9085,7 +9222,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI58">
+  <conditionalFormatting sqref="A2:AI59">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
